--- a/data/pca/factorExposure/factorExposure_2012-09-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001355359527371298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001865515716901846</v>
+      </c>
+      <c r="C2">
+        <v>0.02804549626360531</v>
+      </c>
+      <c r="D2">
+        <v>0.005700031220974289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0002536850270893122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007143810831624017</v>
+      </c>
+      <c r="C4">
+        <v>0.08298581791299063</v>
+      </c>
+      <c r="D4">
+        <v>0.07106763668160093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.002167940283703364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01443792704656726</v>
+      </c>
+      <c r="C6">
+        <v>0.1139423514800474</v>
+      </c>
+      <c r="D6">
+        <v>0.02553399821832361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0005425812826690222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005083272254760155</v>
+      </c>
+      <c r="C7">
+        <v>0.05788452316624915</v>
+      </c>
+      <c r="D7">
+        <v>0.03421400618629822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007511719636496612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006004550610500839</v>
+      </c>
+      <c r="C8">
+        <v>0.03562590912435119</v>
+      </c>
+      <c r="D8">
+        <v>0.03982869981711461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001075912808231021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005232672699245249</v>
+      </c>
+      <c r="C9">
+        <v>0.07049130409675061</v>
+      </c>
+      <c r="D9">
+        <v>0.07649769075657863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002721387124150518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005499742365929262</v>
+      </c>
+      <c r="C10">
+        <v>0.0555319381141441</v>
+      </c>
+      <c r="D10">
+        <v>-0.1932249350322435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001778001166954722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005716149955692149</v>
+      </c>
+      <c r="C11">
+        <v>0.07874580804899697</v>
+      </c>
+      <c r="D11">
+        <v>0.06633152669551926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007959764507001515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004191935949940147</v>
+      </c>
+      <c r="C12">
+        <v>0.06407052396449847</v>
+      </c>
+      <c r="D12">
+        <v>0.05270329811133655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003230674279597285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008241503238270692</v>
+      </c>
+      <c r="C13">
+        <v>0.06713206008718231</v>
+      </c>
+      <c r="D13">
+        <v>0.06263175842209111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001800532358773688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007023763139432094</v>
+      </c>
+      <c r="C14">
+        <v>0.04205620466186615</v>
+      </c>
+      <c r="D14">
+        <v>0.01300102041206815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0001488483390800814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005989223681728475</v>
+      </c>
+      <c r="C15">
+        <v>0.03985564446149927</v>
+      </c>
+      <c r="D15">
+        <v>0.03045758682871401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-3.106166393694237e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005081608058246014</v>
+      </c>
+      <c r="C16">
+        <v>0.06367998042524899</v>
+      </c>
+      <c r="D16">
+        <v>0.05888290375510774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001812251912197298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008835215533399641</v>
+      </c>
+      <c r="C20">
+        <v>0.0626684999384461</v>
+      </c>
+      <c r="D20">
+        <v>0.05229911051106045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006399660670557173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00917437761623977</v>
+      </c>
+      <c r="C21">
+        <v>0.0189272575472131</v>
+      </c>
+      <c r="D21">
+        <v>0.0434707100606742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01978271377562898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007115465855149969</v>
+      </c>
+      <c r="C22">
+        <v>0.08594936450991662</v>
+      </c>
+      <c r="D22">
+        <v>0.1262184544796436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01945101727805875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006828269648103093</v>
+      </c>
+      <c r="C23">
+        <v>0.08631550945971411</v>
+      </c>
+      <c r="D23">
+        <v>0.1273626238761998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001657537564767033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005559283246774383</v>
+      </c>
+      <c r="C24">
+        <v>0.07532517748296735</v>
+      </c>
+      <c r="D24">
+        <v>0.06932779037507238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003323928901845924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003172805690302264</v>
+      </c>
+      <c r="C25">
+        <v>0.07722464268234097</v>
+      </c>
+      <c r="D25">
+        <v>0.06787683992198174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002997787220155639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003576182110784777</v>
+      </c>
+      <c r="C26">
+        <v>0.03834894751162966</v>
+      </c>
+      <c r="D26">
+        <v>0.02554229107339812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005915121442986893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001277286731076659</v>
+      </c>
+      <c r="C28">
+        <v>0.1052077502497616</v>
+      </c>
+      <c r="D28">
+        <v>-0.3226947148775395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0004778947227475551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002680251806225415</v>
+      </c>
+      <c r="C29">
+        <v>0.04851372637185822</v>
+      </c>
+      <c r="D29">
+        <v>0.01144447758340101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003874635864157375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009827156561251351</v>
+      </c>
+      <c r="C30">
+        <v>0.1407628896012755</v>
+      </c>
+      <c r="D30">
+        <v>0.110386238891343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002037340964835139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006296048754931015</v>
+      </c>
+      <c r="C31">
+        <v>0.04292222031347703</v>
+      </c>
+      <c r="D31">
+        <v>0.03383702575433281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001916267374895078</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003658097478410924</v>
+      </c>
+      <c r="C32">
+        <v>0.04028623713041358</v>
+      </c>
+      <c r="D32">
+        <v>0.02345031336598228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.0007238910316818228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009141684983146162</v>
+      </c>
+      <c r="C33">
+        <v>0.08805942307193441</v>
+      </c>
+      <c r="D33">
+        <v>0.06656304449026443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.002450347773433809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004232121607916311</v>
+      </c>
+      <c r="C34">
+        <v>0.05729970654923228</v>
+      </c>
+      <c r="D34">
+        <v>0.05915660766056772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00137438857824682</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.00538260681628011</v>
+      </c>
+      <c r="C35">
+        <v>0.03991670468010777</v>
+      </c>
+      <c r="D35">
+        <v>0.02178547669341242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005165419409826353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001543224190246872</v>
+      </c>
+      <c r="C36">
+        <v>0.0236497498765206</v>
+      </c>
+      <c r="D36">
+        <v>0.02776474141454612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001275375061690871</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009281150731698037</v>
+      </c>
+      <c r="C38">
+        <v>0.03831487722251101</v>
+      </c>
+      <c r="D38">
+        <v>0.01514431117650654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01125451007098421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001293578920856409</v>
+      </c>
+      <c r="C39">
+        <v>0.1128382320215146</v>
+      </c>
+      <c r="D39">
+        <v>0.07809503928107318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.006311428104529702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003810929024149779</v>
+      </c>
+      <c r="C40">
+        <v>0.09109966294217671</v>
+      </c>
+      <c r="D40">
+        <v>0.0168179643171481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.000796447382994329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007315269424990218</v>
+      </c>
+      <c r="C41">
+        <v>0.0387831633743965</v>
+      </c>
+      <c r="D41">
+        <v>0.0403527070102248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002259714230130013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003900817248806206</v>
+      </c>
+      <c r="C43">
+        <v>0.05229327192412152</v>
+      </c>
+      <c r="D43">
+        <v>0.02907230061781338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.0110946027642254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002645073148916073</v>
+      </c>
+      <c r="C44">
+        <v>0.1037329471053316</v>
+      </c>
+      <c r="D44">
+        <v>0.06832132910398177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0007913439083599025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001567951127932625</v>
+      </c>
+      <c r="C46">
+        <v>0.03243740616536973</v>
+      </c>
+      <c r="D46">
+        <v>0.03589071978497619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008483884047106229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002085978354537583</v>
+      </c>
+      <c r="C47">
+        <v>0.03458699730815437</v>
+      </c>
+      <c r="D47">
+        <v>0.0234346577143645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003617239021720418</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006575286198690375</v>
+      </c>
+      <c r="C48">
+        <v>0.02946211862214392</v>
+      </c>
+      <c r="D48">
+        <v>0.03804496569820706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.001598878878502904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01779359674371958</v>
+      </c>
+      <c r="C49">
+        <v>0.1906952831480789</v>
+      </c>
+      <c r="D49">
+        <v>0.005820640201585403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-5.061004563646233e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003617485046714213</v>
+      </c>
+      <c r="C50">
+        <v>0.041629664046304</v>
+      </c>
+      <c r="D50">
+        <v>0.04083298199586196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0002039446998054271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.005003060437844297</v>
+      </c>
+      <c r="C51">
+        <v>0.02620867640016439</v>
+      </c>
+      <c r="D51">
+        <v>0.02210153549515639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.005300861268029574</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02142921778669838</v>
+      </c>
+      <c r="C53">
+        <v>0.1708481191732398</v>
+      </c>
+      <c r="D53">
+        <v>0.02250542491139659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00348626826692353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009245459437671194</v>
+      </c>
+      <c r="C54">
+        <v>0.05420032333259749</v>
+      </c>
+      <c r="D54">
+        <v>0.04472192706048481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.001050575311725123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009651813004268837</v>
+      </c>
+      <c r="C55">
+        <v>0.1074931567695896</v>
+      </c>
+      <c r="D55">
+        <v>0.03972305534024091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.006887245968847436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02060122367585595</v>
+      </c>
+      <c r="C56">
+        <v>0.1748048917823955</v>
+      </c>
+      <c r="D56">
+        <v>0.01512514066725624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.001855282137910586</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0190524927836362</v>
+      </c>
+      <c r="C58">
+        <v>0.1032745080513394</v>
+      </c>
+      <c r="D58">
+        <v>0.07373543036514263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.004318566036243627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01041732323963572</v>
+      </c>
+      <c r="C59">
+        <v>0.1699460381896298</v>
+      </c>
+      <c r="D59">
+        <v>-0.3410122303942979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.001549048165367027</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02527611132387284</v>
+      </c>
+      <c r="C60">
+        <v>0.2263583894833968</v>
+      </c>
+      <c r="D60">
+        <v>0.01762151412945484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01014192158264565</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001779267497206128</v>
+      </c>
+      <c r="C61">
+        <v>0.09402354203978014</v>
+      </c>
+      <c r="D61">
+        <v>0.05858544252400527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1536891143814728</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1496869638272504</v>
+      </c>
+      <c r="C62">
+        <v>0.09779436459855054</v>
+      </c>
+      <c r="D62">
+        <v>0.02299636777793867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0006768928496928053</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006483030859661735</v>
+      </c>
+      <c r="C63">
+        <v>0.05226147516761021</v>
+      </c>
+      <c r="D63">
+        <v>0.03550254245880761</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005144965087324498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01575806831815512</v>
+      </c>
+      <c r="C64">
+        <v>0.1047910470121191</v>
+      </c>
+      <c r="D64">
+        <v>0.05678447128429125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.004803415918091835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0176845613398467</v>
+      </c>
+      <c r="C65">
+        <v>0.1203740235719728</v>
+      </c>
+      <c r="D65">
+        <v>0.02998077288951612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002200721713501829</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01340658186491229</v>
+      </c>
+      <c r="C66">
+        <v>0.1609142237984552</v>
+      </c>
+      <c r="D66">
+        <v>0.1100182516558334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003910405976082229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01565111063799432</v>
+      </c>
+      <c r="C67">
+        <v>0.07070293970610964</v>
+      </c>
+      <c r="D67">
+        <v>0.0255567238730093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004094489678896033</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001214673506302682</v>
+      </c>
+      <c r="C68">
+        <v>0.08731592922725374</v>
+      </c>
+      <c r="D68">
+        <v>-0.2560749345217104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0006926870526172415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006533707021801431</v>
+      </c>
+      <c r="C69">
+        <v>0.05247206161948929</v>
+      </c>
+      <c r="D69">
+        <v>0.03836704634161662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001418127176107388</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002209360242736816</v>
+      </c>
+      <c r="C70">
+        <v>0.006962766872522656</v>
+      </c>
+      <c r="D70">
+        <v>0.001339249026764825</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0009077549131556177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005900094549363947</v>
+      </c>
+      <c r="C71">
+        <v>0.09203930329963829</v>
+      </c>
+      <c r="D71">
+        <v>-0.3004634967221184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.001660386334576748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0166897342701316</v>
+      </c>
+      <c r="C72">
+        <v>0.1569241781916031</v>
+      </c>
+      <c r="D72">
+        <v>0.01134805070889404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.001124791534336645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03173801354953786</v>
+      </c>
+      <c r="C73">
+        <v>0.2828303327228019</v>
+      </c>
+      <c r="D73">
+        <v>0.05395053797611214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005307326926250962</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002142461917583282</v>
+      </c>
+      <c r="C74">
+        <v>0.101797411849911</v>
+      </c>
+      <c r="D74">
+        <v>0.03629769266089862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002718484256818176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01087055831659405</v>
+      </c>
+      <c r="C75">
+        <v>0.1216839075113622</v>
+      </c>
+      <c r="D75">
+        <v>0.02521969534922454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0115861906082439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02249667081322195</v>
+      </c>
+      <c r="C76">
+        <v>0.1466946968924158</v>
+      </c>
+      <c r="D76">
+        <v>0.05805345884909431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002291021113463635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02145070869336422</v>
+      </c>
+      <c r="C77">
+        <v>0.1125174942832227</v>
+      </c>
+      <c r="D77">
+        <v>0.05469479753772475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003026601004307398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01477521602729526</v>
+      </c>
+      <c r="C78">
+        <v>0.09640977015717553</v>
+      </c>
+      <c r="D78">
+        <v>0.0821026505282223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02433236072105531</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03855946775069086</v>
+      </c>
+      <c r="C79">
+        <v>0.1557670932706842</v>
+      </c>
+      <c r="D79">
+        <v>0.03363497323167532</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006138157859629469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0100294087689466</v>
+      </c>
+      <c r="C80">
+        <v>0.03832217626338259</v>
+      </c>
+      <c r="D80">
+        <v>0.03011207391094062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.003767824459094592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01594403138154958</v>
+      </c>
+      <c r="C81">
+        <v>0.1294692639328176</v>
+      </c>
+      <c r="D81">
+        <v>0.0377852008980591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006374404697016214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01991901923900784</v>
+      </c>
+      <c r="C82">
+        <v>0.1386631207778713</v>
+      </c>
+      <c r="D82">
+        <v>0.03853728061406331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.0007276640943866666</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01158335421572151</v>
+      </c>
+      <c r="C83">
+        <v>0.06238976985280048</v>
+      </c>
+      <c r="D83">
+        <v>0.04502756957682581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01070347185998731</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01238672587841705</v>
+      </c>
+      <c r="C84">
+        <v>0.0377001452699731</v>
+      </c>
+      <c r="D84">
+        <v>-0.002326336196006607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01644016480614231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02931427910013653</v>
+      </c>
+      <c r="C85">
+        <v>0.1233937561307016</v>
+      </c>
+      <c r="D85">
+        <v>0.03820495943251543</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00289013594833755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004571470547648731</v>
+      </c>
+      <c r="C86">
+        <v>0.05025716356180769</v>
+      </c>
+      <c r="D86">
+        <v>0.02818602117986926</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0004044188826782144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.0110009107919093</v>
+      </c>
+      <c r="C87">
+        <v>0.1278041640865632</v>
+      </c>
+      <c r="D87">
+        <v>0.07779601730573035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009338370845336379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002891055037275238</v>
+      </c>
+      <c r="C88">
+        <v>0.06324821760580164</v>
+      </c>
+      <c r="D88">
+        <v>0.02734929845592349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009327916033576909</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001451792745307523</v>
+      </c>
+      <c r="C89">
+        <v>0.1398788400574801</v>
+      </c>
+      <c r="D89">
+        <v>-0.3165968656979156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002095635543710295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006943376917740985</v>
+      </c>
+      <c r="C90">
+        <v>0.1212526196207954</v>
+      </c>
+      <c r="D90">
+        <v>-0.3120917069906394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0001305342102090623</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01049217664024956</v>
+      </c>
+      <c r="C91">
+        <v>0.09931861266734222</v>
+      </c>
+      <c r="D91">
+        <v>0.02477961908998966</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007315818438802824</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0007186857516020465</v>
+      </c>
+      <c r="C92">
+        <v>0.1348060106440417</v>
+      </c>
+      <c r="D92">
+        <v>-0.3225532093151903</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001059950045163079</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004322359381344044</v>
+      </c>
+      <c r="C93">
+        <v>0.1056302393342469</v>
+      </c>
+      <c r="D93">
+        <v>-0.2968672312571473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004705630973703261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02169133473276709</v>
+      </c>
+      <c r="C94">
+        <v>0.1424995991012203</v>
+      </c>
+      <c r="D94">
+        <v>0.05408924924082069</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.000733225384693102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01661831124756965</v>
+      </c>
+      <c r="C95">
+        <v>0.1209765116068498</v>
+      </c>
+      <c r="D95">
+        <v>0.06562852581541528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.009387551830408897</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03693463812651002</v>
+      </c>
+      <c r="C97">
+        <v>0.2257830913805994</v>
+      </c>
+      <c r="D97">
+        <v>0.002514196428604801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.006535065242044613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03814809993710018</v>
+      </c>
+      <c r="C98">
+        <v>0.2584594311585862</v>
+      </c>
+      <c r="D98">
+        <v>0.03160974041110939</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864797410742296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9811596607402796</v>
+      </c>
+      <c r="C99">
+        <v>-0.1207063135721718</v>
+      </c>
+      <c r="D99">
+        <v>-0.02361572293143361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004118645384851587</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002721517076553044</v>
+      </c>
+      <c r="C101">
+        <v>0.04863968407537572</v>
+      </c>
+      <c r="D101">
+        <v>0.01182777203415185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
